--- a/Data Files/Add Asset Types.xlsx
+++ b/Data Files/Add Asset Types.xlsx
@@ -24,10 +24,10 @@
     <t>assetDescription</t>
   </si>
   <si>
-    <t>iPhone</t>
+    <t>bicycle</t>
   </si>
   <si>
-    <t>Visitors mobile phone</t>
+    <t>visitor bicycles</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
